--- a/medicine/Enfance/Élodie_Maurot/Élodie_Maurot.xlsx
+++ b/medicine/Enfance/Élodie_Maurot/Élodie_Maurot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89lodie_Maurot</t>
+          <t>Élodie_Maurot</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Élodie Maurot, née en 1975 à Paris, est une journaliste française, qui travaille au service culture du quotidien La Croix. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89lodie_Maurot</t>
+          <t>Élodie_Maurot</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Diplômée de l'Institut d'études politiques de Paris[1] et titulaire d'une licence de théologie obtenue au Centre Sèvres, elle rejoint rapidement le quotidien La Croix, où elle s’intéresse aux sujets culturels et de société[2]. 
-Elle cosigne dans le 27 mars 2017 une notice sur la notion de solidarité[3] avec le président de l'observatoire des inégalités Louis Maurin[4] intitulée  « notre culture de la solidarité est un sentiment très fort »[5]. Elle traite le sujet plus en tant que journaliste d'opinion [6]que journaliste économique dans la mesure où elle s’intéresse au ressentiment d’inégalité en France et non des causes structurelles[5].
-Elle intervient régulièrement eux mercredis des Bernardins sur l'éthique médicale[7]. Elle est par ailleurs membre de l'association des journalistes du patrimoine[8].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diplômée de l'Institut d'études politiques de Paris et titulaire d'une licence de théologie obtenue au Centre Sèvres, elle rejoint rapidement le quotidien La Croix, où elle s’intéresse aux sujets culturels et de société. 
+Elle cosigne dans le 27 mars 2017 une notice sur la notion de solidarité avec le président de l'observatoire des inégalités Louis Maurin intitulée  « notre culture de la solidarité est un sentiment très fort ». Elle traite le sujet plus en tant que journaliste d'opinion que journaliste économique dans la mesure où elle s’intéresse au ressentiment d’inégalité en France et non des causes structurelles.
+Elle intervient régulièrement eux mercredis des Bernardins sur l'éthique médicale. Elle est par ailleurs membre de l'association des journalistes du patrimoine.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89lodie_Maurot</t>
+          <t>Élodie_Maurot</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Spiritualité jésuite</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est proche d'un bon nombre d'intellectuels catholiques de la spiritualité jésuite[9], ordre fondé au XVIe siècle par le noble espagnol Saint Ignace de Loyola, où elle rédige entre autres les carnets de théologie résiliente[10]. Celle-ci est une branche nouvelle de la théologie dogmatique d'inspiration jésuite[11] née de la rencontre des études psychopathologiques cliniques et de la théologie dogmatique. Le livre qui inaugure ce nouveau champ de recherche théologale est le livre L'Autre Dieu de Marion Muller-Colard[12].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est proche d'un bon nombre d'intellectuels catholiques de la spiritualité jésuite, ordre fondé au XVIe siècle par le noble espagnol Saint Ignace de Loyola, où elle rédige entre autres les carnets de théologie résiliente. Celle-ci est une branche nouvelle de la théologie dogmatique d'inspiration jésuite née de la rencontre des études psychopathologiques cliniques et de la théologie dogmatique. Le livre qui inaugure ce nouveau champ de recherche théologale est le livre L'Autre Dieu de Marion Muller-Colard.
 Elle est membre du comité de rédaction des revues Études et Christus.
 </t>
         </is>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89lodie_Maurot</t>
+          <t>Élodie_Maurot</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,9 +592,11 @@
           <t>Auteur jeunesse de spiritualité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Élodie Maurot est un auteur jeunesse de spiritualité catholique centrée sur la Bible[11] et les sacrements particulièrement abondante. Elle a rédigé pas moins de six livres entre 2016 et 2020. Elle a un style catéchétique par individualisation de la foi qui reprend la doctrine du philosophe canadien Charles Taylor[13], dont elle fait écho dans la revue jésuite Christus en octobre 2012 dans un article « Refaire la vie »[14].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Élodie Maurot est un auteur jeunesse de spiritualité catholique centrée sur la Bible et les sacrements particulièrement abondante. Elle a rédigé pas moins de six livres entre 2016 et 2020. Elle a un style catéchétique par individualisation de la foi qui reprend la doctrine du philosophe canadien Charles Taylor, dont elle fait écho dans la revue jésuite Christus en octobre 2012 dans un article « Refaire la vie ».
 </t>
         </is>
       </c>
